--- a/Assets/CardData.xlsx
+++ b/Assets/CardData.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024\Git\CardGame\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78BC9BF4-4258-47D0-A944-1194981BEAEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CCD5A4-B2FC-4D35-A269-DDB011ECDAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3945" yWindow="-13740" windowWidth="21600" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardBase" sheetId="1" r:id="rId1"/>
+    <sheet name="Value" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="143">
   <si>
     <t>ID</t>
   </si>
@@ -97,6 +99,813 @@
   </si>
   <si>
     <t>欠けた剣をつるぎシリーズに</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Attack</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Magic</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Variation</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>パワーアックス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ロングソード</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>血濡れのメイス</t>
+    <rPh sb="0" eb="2">
+      <t>チヌ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手斧</t>
+    <rPh sb="0" eb="2">
+      <t>テオノ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呪いのつるぎ</t>
+    <rPh sb="0" eb="1">
+      <t>ノロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔王のつるぎ</t>
+    <rPh sb="0" eb="2">
+      <t>マオウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>魔法のワンド</t>
+    <rPh sb="0" eb="2">
+      <t>マホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>神の鉄槌</t>
+    <rPh sb="0" eb="1">
+      <t>カミ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テッツイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>素敵なステッキ</t>
+    <rPh sb="0" eb="2">
+      <t>ステキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>焔の双剣</t>
+    <rPh sb="0" eb="1">
+      <t>ホムラ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ソウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炎の槍</t>
+    <rPh sb="0" eb="1">
+      <t>ホノオ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヤリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>書き換えのペン</t>
+    <rPh sb="0" eb="1">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呪い</t>
+    <rPh sb="0" eb="1">
+      <t>ノロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファイアボール</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フロストノヴァ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不死鳥の羽</t>
+    <rPh sb="0" eb="3">
+      <t>フシチョウ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>世界樹の葉</t>
+    <rPh sb="0" eb="3">
+      <t>セカイジュ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>吸血</t>
+    <rPh sb="0" eb="2">
+      <t>キュウケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呼び出す</t>
+    <rPh sb="0" eb="1">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>命の雫</t>
+    <rPh sb="0" eb="1">
+      <t>イノチ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>シズク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復のポーション</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復の翼</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ツバサ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悪魔の宣告</t>
+    <rPh sb="0" eb="2">
+      <t>アクマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>センコク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悪魔召喚</t>
+    <rPh sb="0" eb="4">
+      <t>アクマショウカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>楽園</t>
+    <rPh sb="0" eb="2">
+      <t>ラクエン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷山の一角</t>
+    <rPh sb="0" eb="2">
+      <t>ヒョウザン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>イッカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>浄化の光</t>
+    <rPh sb="0" eb="2">
+      <t>ジョウカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヒカリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>火の精霊</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイレイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>炎の雨</t>
+    <rPh sb="0" eb="1">
+      <t>ホノオ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>アメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>碑石</t>
+    <rPh sb="0" eb="2">
+      <t>ヒセキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>聖水</t>
+    <rPh sb="0" eb="2">
+      <t>セイスイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>賢者のステッキ</t>
+    <rPh sb="0" eb="2">
+      <t>ケンジャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>道ずれの呪い</t>
+    <rPh sb="0" eb="1">
+      <t>ミチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ノロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>氷雲の破片</t>
+    <rPh sb="0" eb="2">
+      <t>コオリグモ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復魔法</t>
+    <rPh sb="0" eb="4">
+      <t>カイフクマホウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>勇者のつるぎ(?)</t>
+    <rPh sb="0" eb="2">
+      <t>ユウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Abnormality</t>
+  </si>
+  <si>
+    <t>Cost</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Revival</t>
+  </si>
+  <si>
+    <t>Revival</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Summon</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Heal</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Abnormality</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Spirit</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>longsward</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>poweraxe</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tinurenomeisu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>teono</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>tikaranogennkenn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>力の原剣</t>
+    <rPh sb="0" eb="1">
+      <t>チカラ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハラ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yuusyanoturugi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>noroinoturugi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>maounoturugi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mahounowanndo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kaminotettui</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>sutekinasutekki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>homuranosoukenn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>honoonoyari</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kakikaenopenn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>noroi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fire</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fireball</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>frostnova</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">husityounohane </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t xml:space="preserve">sekaijunoha </t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kyuuketu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>yobidasu</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>inotinosizuku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kaihukunopo-syonn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>akumanosennkoku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kaihukunotubasa</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>akumasyoukann</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>rakuenn</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hyouzannnoikkaku</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>joukanohikari</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hinoseirei</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>honoonoame</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hiseki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>seisui</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kennjanosutekki</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>mitizurenonoroi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>hyouunnohahen</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kaihukumahou</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用者はのろい状態になる</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>使用者に1/2のダメージ</t>
+    <rPh sb="0" eb="3">
+      <t>シヨウシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ノーコストで三回まで魔法を使える</t>
+    <rPh sb="6" eb="8">
+      <t>サンカイ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダムなユーザーに３０ダメージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステッキで殴る</t>
+    <rPh sb="5" eb="6">
+      <t>ナグ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>二回攻撃</t>
+    <rPh sb="0" eb="4">
+      <t>ニカイコウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札をランダムに入れ替える</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>相手をのろい状態にする</t>
+    <rPh sb="0" eb="2">
+      <t>アイテ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10%の確率で相手をやけどにする</t>
+    <rPh sb="4" eb="6">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>アイテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25%の確率で相手をやけどにする</t>
+    <rPh sb="4" eb="6">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>アイテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>全員が50％で凍結する</t>
+    <rPh sb="0" eb="2">
+      <t>ゼンイン</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>手札にある場合、復活できる</t>
+    <rPh sb="0" eb="2">
+      <t>テフダ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>フッカツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>つかった次のターンに復活できる</t>
+    <rPh sb="4" eb="5">
+      <t>ツギ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>フッカツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>与えたダメージ回復</t>
+    <rPh sb="0" eb="1">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>精霊/悪魔を呼び出す</t>
+    <rPh sb="0" eb="2">
+      <t>セイレイ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>アクマ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>10回復</t>
+    <rPh sb="2" eb="4">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>アイテ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>20回復</t>
+    <rPh sb="2" eb="4">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>30回復</t>
+    <rPh sb="2" eb="4">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50％の確率でのろい状態にする</t>
+    <rPh sb="4" eb="6">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悪魔を呼び出す</t>
+    <rPh sb="0" eb="2">
+      <t>アクマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎ターン１０回復/しぬ</t>
+    <rPh sb="0" eb="1">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50％で凍結にする</t>
+    <rPh sb="4" eb="6">
+      <t>トウケツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>悪魔を払う</t>
+    <rPh sb="0" eb="2">
+      <t>アクマ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50％で炎ダメージ</t>
+    <rPh sb="4" eb="5">
+      <t>ホノオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呪いを解除、１０回復</t>
+    <rPh sb="0" eb="1">
+      <t>ノロ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイジョ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランダムな魔法を発動する</t>
+    <rPh sb="5" eb="7">
+      <t>マホウ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ハツドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>このカードをもって死ぬと誰かを道ずれにする</t>
+    <rPh sb="9" eb="10">
+      <t>シ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ダレ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ミチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>50％で水ダメージ</t>
+    <rPh sb="4" eb="5">
+      <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１０回復</t>
+    <rPh sb="2" eb="4">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Value</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Select</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Me</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Random</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>All</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Target</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -476,17 +1285,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E6"/>
+  <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B25" sqref="B1:B1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="3" max="3" width="12.75" customWidth="1"/>
-    <col min="4" max="4" width="17.125" customWidth="1"/>
-    <col min="5" max="5" width="28.25" customWidth="1"/>
+    <col min="2" max="2" width="14.25" customWidth="1"/>
+    <col min="3" max="3" width="21.125" customWidth="1"/>
+    <col min="4" max="4" width="23.25" customWidth="1"/>
+    <col min="5" max="5" width="39.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.4">
@@ -553,33 +1363,664 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5">
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>14</v>
+        <v>21</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>16</v>
+        <v>70</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>25</v>
+      </c>
+      <c r="D6" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" t="s">
+        <v>15</v>
+      </c>
+      <c r="D9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A11">
         <v>9</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B11" t="s">
         <v>17</v>
       </c>
-      <c r="C6" t="s">
+      <c r="C11" t="s">
         <v>18</v>
       </c>
-      <c r="D6" t="s">
+      <c r="D11" t="s">
         <v>19</v>
       </c>
-      <c r="E6" t="s">
+      <c r="E11" t="s">
         <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s">
+        <v>76</v>
+      </c>
+      <c r="E13" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>77</v>
+      </c>
+      <c r="E14" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" t="s">
+        <v>30</v>
+      </c>
+      <c r="D15" t="s">
+        <v>78</v>
+      </c>
+      <c r="E15" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>21</v>
+      </c>
+      <c r="C16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E16" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>21</v>
+      </c>
+      <c r="C17" t="s">
+        <v>32</v>
+      </c>
+      <c r="D17" t="s">
+        <v>80</v>
+      </c>
+      <c r="E17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" t="s">
+        <v>81</v>
+      </c>
+      <c r="E18" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>21</v>
+      </c>
+      <c r="C19" t="s">
+        <v>34</v>
+      </c>
+      <c r="D19" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+      <c r="D20" t="s">
+        <v>83</v>
+      </c>
+      <c r="E20" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>61</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" t="s">
+        <v>84</v>
+      </c>
+      <c r="E21" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" t="s">
+        <v>85</v>
+      </c>
+      <c r="E22" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>38</v>
+      </c>
+      <c r="D23" t="s">
+        <v>86</v>
+      </c>
+      <c r="E23" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
+      <c r="C24" t="s">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s">
+        <v>87</v>
+      </c>
+      <c r="E24" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>64</v>
+      </c>
+      <c r="C25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A26">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C26" t="s">
+        <v>41</v>
+      </c>
+      <c r="D26" t="s">
+        <v>89</v>
+      </c>
+      <c r="E26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A27">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27" t="s">
+        <v>42</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A28">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>65</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s">
+        <v>91</v>
+      </c>
+      <c r="E28" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A29">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>66</v>
+      </c>
+      <c r="C29" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" t="s">
+        <v>92</v>
+      </c>
+      <c r="E29" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A30">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>66</v>
+      </c>
+      <c r="C30" t="s">
+        <v>45</v>
+      </c>
+      <c r="D30" t="s">
+        <v>93</v>
+      </c>
+      <c r="E30" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A31">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>46</v>
+      </c>
+      <c r="D31" t="s">
+        <v>95</v>
+      </c>
+      <c r="E31" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A32">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>67</v>
+      </c>
+      <c r="C32" t="s">
+        <v>47</v>
+      </c>
+      <c r="D32" t="s">
+        <v>94</v>
+      </c>
+      <c r="E32" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A33">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="s">
+        <v>48</v>
+      </c>
+      <c r="D33" t="s">
+        <v>96</v>
+      </c>
+      <c r="E33" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A34">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>67</v>
+      </c>
+      <c r="C34" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" t="s">
+        <v>97</v>
+      </c>
+      <c r="E34" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A35">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>22</v>
+      </c>
+      <c r="C35" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" t="s">
+        <v>98</v>
+      </c>
+      <c r="E35" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A36">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>67</v>
+      </c>
+      <c r="C36" t="s">
+        <v>51</v>
+      </c>
+      <c r="D36" t="s">
+        <v>99</v>
+      </c>
+      <c r="E36" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A37">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>68</v>
+      </c>
+      <c r="C37" t="s">
+        <v>52</v>
+      </c>
+      <c r="D37" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A38">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>22</v>
+      </c>
+      <c r="C38" t="s">
+        <v>53</v>
+      </c>
+      <c r="D38" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A39">
+        <v>37</v>
+      </c>
+      <c r="C39" t="s">
+        <v>54</v>
+      </c>
+      <c r="D39" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A40">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" t="s">
+        <v>55</v>
+      </c>
+      <c r="D40" t="s">
+        <v>103</v>
+      </c>
+      <c r="E40" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A41">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>22</v>
+      </c>
+      <c r="C41" t="s">
+        <v>56</v>
+      </c>
+      <c r="D41" t="s">
+        <v>104</v>
+      </c>
+      <c r="E41" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A42">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>67</v>
+      </c>
+      <c r="C42" t="s">
+        <v>57</v>
+      </c>
+      <c r="D42" t="s">
+        <v>105</v>
+      </c>
+      <c r="E42" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A43">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>22</v>
+      </c>
+      <c r="C43" t="s">
+        <v>58</v>
+      </c>
+      <c r="D43" t="s">
+        <v>106</v>
+      </c>
+      <c r="E43" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A44">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>22</v>
+      </c>
+      <c r="C44" t="s">
+        <v>59</v>
+      </c>
+      <c r="D44" t="s">
+        <v>107</v>
+      </c>
+      <c r="E44" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="A47">
+        <v>45</v>
       </c>
     </row>
   </sheetData>
@@ -587,4 +2028,313 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF013D5-C515-47E9-8B38-243AC38AF4D7}">
+  <dimension ref="A1:C25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="2" max="2" width="19" customWidth="1"/>
+    <col min="3" max="3" width="15.75" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C1" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>5</v>
+      </c>
+      <c r="C2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>10</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>12</v>
+      </c>
+      <c r="C5" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>8</v>
+      </c>
+      <c r="C7" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>18</v>
+      </c>
+      <c r="C8" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A9">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>30</v>
+      </c>
+      <c r="C9" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A10">
+        <v>11</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
+      <c r="C10" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A11">
+        <v>12</v>
+      </c>
+      <c r="B11">
+        <v>50</v>
+      </c>
+      <c r="C11" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A12">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>30</v>
+      </c>
+      <c r="C12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A13">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>5</v>
+      </c>
+      <c r="C13" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A14">
+        <v>16</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A15">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>25</v>
+      </c>
+      <c r="C15" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A16">
+        <v>20</v>
+      </c>
+      <c r="B16">
+        <v>10</v>
+      </c>
+      <c r="C16" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A17">
+        <v>21</v>
+      </c>
+      <c r="B17">
+        <v>25</v>
+      </c>
+      <c r="C17" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A18">
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>30</v>
+      </c>
+      <c r="C18" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A19">
+        <v>25</v>
+      </c>
+      <c r="B19">
+        <v>20</v>
+      </c>
+      <c r="C19" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A20">
+        <v>27</v>
+      </c>
+      <c r="B20">
+        <v>10</v>
+      </c>
+      <c r="C20" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A21">
+        <v>28</v>
+      </c>
+      <c r="B21">
+        <v>30</v>
+      </c>
+      <c r="C21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A22">
+        <v>29</v>
+      </c>
+      <c r="B22">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A23">
+        <v>36</v>
+      </c>
+      <c r="B23">
+        <v>20</v>
+      </c>
+      <c r="C23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A24">
+        <v>41</v>
+      </c>
+      <c r="B24">
+        <v>20</v>
+      </c>
+      <c r="C24" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+      <c r="A25">
+        <v>42</v>
+      </c>
+      <c r="B25">
+        <v>15</v>
+      </c>
+      <c r="C25" t="s">
+        <v>138</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5787097F-A142-45D4-8468-908B561A827E}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Assets/CardData.xlsx
+++ b/Assets/CardData.xlsx
@@ -8,14 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2024\Git\CardGame\Assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49CCD5A4-B2FC-4D35-A269-DDB011ECDAC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D10CA6B-1E2B-4E8E-8A6B-2D6045CF2D1A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2190" yWindow="2685" windowWidth="21600" windowHeight="12795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CardBase" sheetId="1" r:id="rId1"/>
-    <sheet name="Value" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet2" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -36,13 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="143">
-  <si>
-    <t>ID</t>
-  </si>
-  <si>
-    <t>CardType</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="153">
   <si>
     <t>Name_JP</t>
   </si>
@@ -662,16 +654,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>相手をのろい状態にする</t>
-    <rPh sb="0" eb="2">
-      <t>アイテ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>ジョウタイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>10%の確率で相手をやけどにする</t>
     <rPh sb="4" eb="6">
       <t>カクリツ</t>
@@ -682,16 +664,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>25%の確率で相手をやけどにする</t>
-    <rPh sb="4" eb="6">
-      <t>カクリツ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>アイテ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>全員が50％で凍結する</t>
     <rPh sb="0" eb="2">
       <t>ゼンイン</t>
@@ -751,33 +723,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>10回復</t>
-    <rPh sb="2" eb="4">
-      <t>カイフク</t>
-    </rPh>
-    <rPh sb="8" eb="10">
-      <t>カクリツ</t>
-    </rPh>
-    <rPh sb="11" eb="13">
-      <t>アイテ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>20回復</t>
-    <rPh sb="2" eb="4">
-      <t>カイフク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>30回復</t>
-    <rPh sb="2" eb="4">
-      <t>カイフク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>50％の確率でのろい状態にする</t>
     <rPh sb="4" eb="6">
       <t>カクリツ</t>
@@ -801,16 +746,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>毎ターン１０回復/しぬ</t>
-    <rPh sb="0" eb="1">
-      <t>マイ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>カイフク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>50％で凍結にする</t>
     <rPh sb="4" eb="6">
       <t>トウケツ</t>
@@ -901,11 +836,140 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>All</t>
+    <t>ID</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>CardType</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Draw</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力2倍</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>25%の確率で全員をやけどにする</t>
+    <rPh sb="4" eb="6">
+      <t>カクリツ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ゼンイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>半分回復</t>
+    <rPh sb="0" eb="4">
+      <t>ハンブンカイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>少し回復</t>
+    <rPh sb="0" eb="1">
+      <t>スコ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Ally</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>毎ターン１０回復or死ぬ</t>
+    <rPh sb="0" eb="1">
+      <t>マイ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>呪い状態</t>
+    <rPh sb="0" eb="1">
+      <t>ノロ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ジョウタイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Enemy</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>回復の羽</t>
+    <rPh sb="0" eb="2">
+      <t>カイフク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ハネ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kaihukunohane</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>味方を半回復</t>
+    <rPh sb="0" eb="2">
+      <t>ミカタ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ハンカイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>味方を全回復</t>
+    <rPh sb="0" eb="2">
+      <t>ミカタ</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>ゼンカイフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>大海のつるぎ</t>
+    <rPh sb="0" eb="2">
+      <t>タイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>taikainoturugi</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ValueCard</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>Target</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>MagicType</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1285,10 +1349,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:I46"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B25" sqref="B1:B1048576"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H1" sqref="H1:H1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -1297,730 +1361,1215 @@
     <col min="3" max="3" width="21.125" customWidth="1"/>
     <col min="4" max="4" width="23.25" customWidth="1"/>
     <col min="5" max="5" width="39.375" customWidth="1"/>
+    <col min="6" max="6" width="10.875" customWidth="1"/>
+    <col min="7" max="7" width="11.125" customWidth="1"/>
+    <col min="8" max="8" width="10.25" customWidth="1"/>
+    <col min="9" max="9" width="11.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>133</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>134</v>
       </c>
       <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" t="s">
+        <v>150</v>
+      </c>
+      <c r="H1" t="s">
+        <v>151</v>
+      </c>
+      <c r="I1" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="C2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
+      <c r="D2" t="s">
         <v>5</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>6</v>
       </c>
-      <c r="D2" t="s">
+      <c r="F2">
+        <f>IF(G2=FALSE, 0, "")</f>
+        <v>0</v>
+      </c>
+      <c r="G2" t="b">
+        <v>0</v>
+      </c>
+      <c r="H2" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
         <v>7</v>
       </c>
-      <c r="E2" t="s">
+      <c r="C3" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>1</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" t="s">
-        <v>10</v>
-      </c>
-      <c r="D3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F3">
+        <v>5</v>
+      </c>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>10</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D5" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
+        <v>68</v>
+      </c>
+      <c r="F5">
+        <v>18</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="D6" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
+        <v>67</v>
+      </c>
+      <c r="F6">
+        <v>15</v>
+      </c>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A7">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
+        <v>69</v>
+      </c>
+      <c r="F7">
+        <v>20</v>
+      </c>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A8">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
+        <v>70</v>
+      </c>
+      <c r="F8">
+        <v>8</v>
+      </c>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A9">
         <v>7</v>
       </c>
       <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
         <v>14</v>
       </c>
-      <c r="C9" t="s">
+      <c r="F9">
         <v>15</v>
       </c>
-      <c r="D9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A10">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C10" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D10" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
+        <v>71</v>
+      </c>
+      <c r="E10" t="s">
+        <v>136</v>
+      </c>
+      <c r="F10">
+        <f>IF(G10=FALSE, 0, "")</f>
+        <v>0</v>
+      </c>
+      <c r="G10" t="b">
+        <v>0</v>
+      </c>
+      <c r="H10" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A11">
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D11" t="s">
         <v>17</v>
       </c>
-      <c r="C11" t="s">
+      <c r="E11" t="s">
         <v>18</v>
       </c>
-      <c r="D11" t="s">
-        <v>19</v>
-      </c>
-      <c r="E11" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="F11">
+        <f>IF(G11=FALSE, 0, "")</f>
+        <v>0</v>
+      </c>
+      <c r="G11" t="b">
+        <v>0</v>
+      </c>
+      <c r="H11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A12">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D12" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
+        <v>73</v>
+      </c>
+      <c r="F12">
+        <v>25</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A13">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D13" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E13" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
+        <v>106</v>
+      </c>
+      <c r="F13">
+        <v>40</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A14">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E14" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
+        <v>107</v>
+      </c>
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A15">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C15" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D15" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E15" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
+        <v>108</v>
+      </c>
+      <c r="F15">
+        <f>IF(G15=FALSE, 0, "")</f>
+        <v>0</v>
+      </c>
+      <c r="G15" t="b">
+        <v>0</v>
+      </c>
+      <c r="H15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A16">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E16" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
+        <v>109</v>
+      </c>
+      <c r="F16">
+        <v>60</v>
+      </c>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A17">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C17" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D17" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
+        <v>110</v>
+      </c>
+      <c r="F17">
+        <v>40</v>
+      </c>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A18">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="E18" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
+        <v>111</v>
+      </c>
+      <c r="F18">
+        <v>16</v>
+      </c>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A19">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C19" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
+        <v>80</v>
+      </c>
+      <c r="F19">
+        <v>22</v>
+      </c>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A20">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C20" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D20" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="E20" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
+        <v>112</v>
+      </c>
+      <c r="F20">
+        <f>IF(G20=FALSE, 0, "")</f>
+        <v>0</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A21">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E21" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
+        <v>142</v>
+      </c>
+      <c r="F21">
+        <f>IF(G21=FALSE, 0, "")</f>
+        <v>0</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A22">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C22" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D22" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E22" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
+        <v>137</v>
+      </c>
+      <c r="F22">
+        <v>10</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" t="s">
+        <v>143</v>
+      </c>
+      <c r="I22" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A23">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D23" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
+        <v>113</v>
+      </c>
+      <c r="F23">
+        <v>20</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" t="s">
+        <v>130</v>
+      </c>
+      <c r="I23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A24">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D24" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E24" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
+        <v>114</v>
+      </c>
+      <c r="F24">
+        <v>30</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" t="s">
+        <v>143</v>
+      </c>
+      <c r="I24" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A25">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C25" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E25" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
+        <v>115</v>
+      </c>
+      <c r="F25">
+        <v>10</v>
+      </c>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A26">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C26" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D26" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E26" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
+        <v>116</v>
+      </c>
+      <c r="F26">
+        <v>5</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A27">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C27" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D27" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E27" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
+        <v>117</v>
+      </c>
+      <c r="F27">
+        <v>25</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" t="s">
+        <v>130</v>
+      </c>
+      <c r="I27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A28">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D28" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E28" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
+        <v>118</v>
+      </c>
+      <c r="F28">
+        <f>IF(G28=FALSE, 0, "")</f>
+        <v>0</v>
+      </c>
+      <c r="G28" t="b">
+        <v>0</v>
+      </c>
+      <c r="H28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A29">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C29" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D29" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E29" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
+        <v>139</v>
+      </c>
+      <c r="F29">
+        <v>25</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A30">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C30" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D30" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E30" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
+        <v>138</v>
+      </c>
+      <c r="F30">
+        <v>50</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A31">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C31" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E31" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
+        <v>147</v>
+      </c>
+      <c r="F31">
+        <v>100</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A32">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C32" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="D32" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E32" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
+        <v>119</v>
+      </c>
+      <c r="F32">
+        <f>IF(G32=FALSE, 0, "")</f>
+        <v>0</v>
+      </c>
+      <c r="G32" t="b">
+        <v>0</v>
+      </c>
+      <c r="H32" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A33">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C33" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="D33" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E33" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
+        <v>120</v>
+      </c>
+      <c r="F33">
+        <f>IF(G33=FALSE, 0, "")</f>
+        <v>0</v>
+      </c>
+      <c r="G33" t="b">
+        <v>0</v>
+      </c>
+      <c r="H33" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A34">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C34" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D34" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E34" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
+        <v>141</v>
+      </c>
+      <c r="F34">
+        <f>IF(G34=FALSE, 0, "")</f>
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <v>0</v>
+      </c>
+      <c r="H34" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A35">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C35" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="D35" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E35" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
+        <v>121</v>
+      </c>
+      <c r="F35">
+        <v>40</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" t="s">
+        <v>130</v>
+      </c>
+      <c r="I35" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A36">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C36" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D36" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E36" t="s">
+        <v>122</v>
+      </c>
+      <c r="F36">
+        <f>IF(G36=FALSE, 0, "")</f>
+        <v>0</v>
+      </c>
+      <c r="G36" t="b">
+        <v>0</v>
+      </c>
+      <c r="H36" t="s">
         <v>130</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A37">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C37" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D37" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
+        <v>98</v>
+      </c>
+      <c r="F37">
+        <f>IF(G37=FALSE, 0, "")</f>
+        <v>0</v>
+      </c>
+      <c r="G37" t="b">
+        <v>0</v>
+      </c>
+      <c r="H37" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A38">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C38" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D38" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="E38" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
+        <v>123</v>
+      </c>
+      <c r="F38">
+        <v>30</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" t="s">
+        <v>143</v>
+      </c>
+      <c r="I38" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A39">
         <v>37</v>
       </c>
+      <c r="B39" t="s">
+        <v>135</v>
+      </c>
       <c r="C39" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="D39" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
+        <v>100</v>
+      </c>
+      <c r="F39">
+        <f>IF(G39=FALSE, 0, "")</f>
+        <v>0</v>
+      </c>
+      <c r="G39" t="b">
+        <v>0</v>
+      </c>
+      <c r="H39" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A40">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="C40" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D40" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E40" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
+        <v>124</v>
+      </c>
+      <c r="F40">
+        <v>10</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A41">
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C41" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D41" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="E41" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
+        <v>125</v>
+      </c>
+      <c r="F41">
+        <f>IF(G41=FALSE, 0, "")</f>
+        <v>0</v>
+      </c>
+      <c r="G41" t="b">
+        <v>0</v>
+      </c>
+      <c r="H41" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A42">
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C42" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D42" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="E42" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
+        <v>126</v>
+      </c>
+      <c r="F42">
+        <f>IF(G42=FALSE, 0, "")</f>
+        <v>0</v>
+      </c>
+      <c r="G42" t="b">
+        <v>0</v>
+      </c>
+      <c r="H42" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A43">
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C43" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E43" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
+        <v>127</v>
+      </c>
+      <c r="F43">
+        <v>15</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" t="s">
+        <v>143</v>
+      </c>
+      <c r="I43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A44">
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C44" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D44" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E44" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
+        <v>128</v>
+      </c>
+      <c r="F44">
+        <v>10</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" t="s">
+        <v>130</v>
+      </c>
+      <c r="I44" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A45">
         <v>43</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
+      <c r="B45" t="s">
+        <v>64</v>
+      </c>
+      <c r="C45" t="s">
+        <v>144</v>
+      </c>
+      <c r="D45" t="s">
+        <v>145</v>
+      </c>
+      <c r="E45" t="s">
+        <v>146</v>
+      </c>
+      <c r="F45">
+        <v>50</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A46">
         <v>44</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.4">
-      <c r="A47">
-        <v>45</v>
+      <c r="B46" t="s">
+        <v>19</v>
+      </c>
+      <c r="C46" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" t="s">
+        <v>149</v>
+      </c>
+      <c r="E46" t="s">
+        <v>117</v>
+      </c>
+      <c r="F46">
+        <v>30</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>
@@ -2028,313 +2577,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6CF013D5-C515-47E9-8B38-243AC38AF4D7}">
-  <dimension ref="A1:C25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <cols>
-    <col min="2" max="2" width="19" customWidth="1"/>
-    <col min="3" max="3" width="15.75" customWidth="1"/>
-    <col min="4" max="4" width="14" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C1" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>5</v>
-      </c>
-      <c r="C2" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3">
-        <v>10</v>
-      </c>
-      <c r="C3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>15</v>
-      </c>
-      <c r="C4" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>12</v>
-      </c>
-      <c r="C5" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6">
-        <v>20</v>
-      </c>
-      <c r="C6" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7">
-        <v>8</v>
-      </c>
-      <c r="C7" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8">
-        <v>18</v>
-      </c>
-      <c r="C8" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A9">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>30</v>
-      </c>
-      <c r="C9" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A10">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>40</v>
-      </c>
-      <c r="C10" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A11">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>50</v>
-      </c>
-      <c r="C11" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A12">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>30</v>
-      </c>
-      <c r="C12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A13">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>5</v>
-      </c>
-      <c r="C13" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A14">
-        <v>16</v>
-      </c>
-      <c r="B14">
-        <v>15</v>
-      </c>
-      <c r="C14" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A15">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A16">
-        <v>20</v>
-      </c>
-      <c r="B16">
-        <v>10</v>
-      </c>
-      <c r="C16" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A17">
-        <v>21</v>
-      </c>
-      <c r="B17">
-        <v>25</v>
-      </c>
-      <c r="C17" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A18">
-        <v>22</v>
-      </c>
-      <c r="B18">
-        <v>30</v>
-      </c>
-      <c r="C18" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A19">
-        <v>25</v>
-      </c>
-      <c r="B19">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A20">
-        <v>27</v>
-      </c>
-      <c r="B20">
-        <v>10</v>
-      </c>
-      <c r="C20" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A21">
-        <v>28</v>
-      </c>
-      <c r="B21">
-        <v>30</v>
-      </c>
-      <c r="C21" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A22">
-        <v>29</v>
-      </c>
-      <c r="B22">
-        <v>50</v>
-      </c>
-      <c r="C22" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A23">
-        <v>36</v>
-      </c>
-      <c r="B23">
-        <v>20</v>
-      </c>
-      <c r="C23" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A24">
-        <v>41</v>
-      </c>
-      <c r="B24">
-        <v>20</v>
-      </c>
-      <c r="C24" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
-      <c r="A25">
-        <v>42</v>
-      </c>
-      <c r="B25">
-        <v>15</v>
-      </c>
-      <c r="C25" t="s">
-        <v>138</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5787097F-A142-45D4-8468-908B561A827E}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
-  <sheetData/>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>